--- a/src/main/webapp/template/static/excel/Danh_Sach_San_Pham.xlsx
+++ b/src/main/webapp/template/static/excel/Danh_Sach_San_Pham.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Cà phê hòa tan</t>
+  </si>
+  <si>
+    <t>Cà phê Robusta</t>
+  </si>
+  <si>
+    <t>Cà phê trồng tại việt nam</t>
+  </si>
+  <si>
+    <t>Đậm đà</t>
   </si>
 </sst>
 </file>
@@ -399,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,6 +501,35 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
